--- a/схема.xlsx
+++ b/схема.xlsx
@@ -72,15 +72,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -144,15 +144,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -216,15 +216,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -288,15 +288,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -360,15 +360,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -432,15 +432,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -504,15 +504,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -576,15 +576,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -643,15 +643,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -715,15 +715,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -765,15 +765,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -815,15 +815,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -865,15 +865,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -915,15 +915,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -965,15 +965,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1015,15 +1015,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1065,15 +1065,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1115,15 +1115,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1182,15 +1182,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1232,15 +1232,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1299,15 +1299,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1322,6 +1322,225 @@
         <a:xfrm flipH="1">
           <a:off x="7410450" y="1905000"/>
           <a:ext cx="28575" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Скругленный прямоугольник 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="47625"/>
+          <a:ext cx="1847851" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STORE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> -&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_state</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>getState()</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>addPost()</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>updateNewPostText</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>renderAll</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>subscribe(observer)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Прямая со стрелкой 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1885950" y="452438"/>
+          <a:ext cx="1019175" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1615,7 +1834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/схема.xlsx
+++ b/схема.xlsx
@@ -1455,12 +1455,24 @@
             </a:rPr>
           </a:br>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_renderAll</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>addPost()</a:t>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
@@ -1475,7 +1487,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>updateNewPostText</a:t>
+            <a:t>subscribe(observer)</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
@@ -1490,22 +1502,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>renderAll</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>subscribe(observer)</a:t>
+            <a:t>dispatch(action)</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1200" b="1">
             <a:solidFill>
@@ -1835,7 +1832,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
